--- a/lab2-gpu-single-sm-q6.xlsx
+++ b/lab2-gpu-single-sm-q6.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\court\OneDrive\Documents\mit\classes\6.S894\accelerated-computing-lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B781234-D224-44B3-98AF-0C10CF5D59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395FBA19-6777-429B-8C74-15E4EE25FC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53652" yWindow="-2904" windowWidth="30936" windowHeight="16776" xr2:uid="{7948C8BB-2137-41CF-93E6-9C9C67D54254}"/>
+    <workbookView xWindow="53652" yWindow="-2904" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{7948C8BB-2137-41CF-93E6-9C9C67D54254}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>latency (ms)</t>
   </si>
@@ -51,6 +52,12 @@
   </si>
   <si>
     <t>full GPU / all SMs:</t>
+  </si>
+  <si>
+    <t>cpu ILP</t>
+  </si>
+  <si>
+    <t>num unroll chunks</t>
   </si>
 </sst>
 </file>
@@ -2575,7 +2582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7F2EFE-13A4-4AA0-8DFE-895BFE57BC0D}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -2814,4 +2821,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5A1EA9-2100-4770-BFC8-4EECCDC8D4C0}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>26.43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>25.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>29.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>